--- a/ProjectB/DBTable/Excel/Menu_Table.xlsx
+++ b/ProjectB/DBTable/Excel/Menu_Table.xlsx
@@ -5,20 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungw\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungw\Documents\GitHub\BunSikFactory\ProjectB\DBTable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21FA73B-32A2-4B51-AB84-40E506AA6C97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ED5EE9-7D93-4CA2-A516-710A31580864}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" activeTab="3" xr2:uid="{1933407A-4930-4F61-9968-64469F1B14E4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" xr2:uid="{1933407A-4930-4F61-9968-64469F1B14E4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tteokbokki" sheetId="1" r:id="rId1"/>
-    <sheet name="Fishcake" sheetId="2" r:id="rId2"/>
-    <sheet name="Sundae" sheetId="4" r:id="rId3"/>
-    <sheet name="Kimbab" sheetId="5" r:id="rId4"/>
-    <sheet name="Auto" sheetId="6" r:id="rId5"/>
-    <sheet name="Schema" sheetId="3" r:id="rId6"/>
+    <sheet name="Menu" sheetId="1" r:id="rId1"/>
+    <sheet name="Schema" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="103">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -894,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B577C08-90E2-4172-8130-DB0BD138B170}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -906,7 +902,8 @@
     <col min="2" max="2" width="5.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1201,6 +1198,869 @@
         <v>22</v>
       </c>
       <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>2000</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>2001</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>2002</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>2003</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <v>2004</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26">
+        <v>2005</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>2006</v>
+      </c>
+      <c r="C27">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>2007</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>2008</v>
+      </c>
+      <c r="C29">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>2009</v>
+      </c>
+      <c r="C30">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>2010</v>
+      </c>
+      <c r="C31">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32">
+        <v>2011</v>
+      </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>2012</v>
+      </c>
+      <c r="C33">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <v>2013</v>
+      </c>
+      <c r="C34">
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <v>2014</v>
+      </c>
+      <c r="C35">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C36" s="5">
+        <v>31</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="5">
+        <v>2016</v>
+      </c>
+      <c r="C37" s="5">
+        <v>33</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C38" s="5">
+        <v>35</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C39" s="5">
+        <v>37</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40">
+        <v>3000</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <v>3001</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42">
+        <v>3002</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43">
+        <v>3003</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44">
+        <v>3004</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45">
+        <v>3005</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46">
+        <v>3006</v>
+      </c>
+      <c r="C46">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47">
+        <v>3007</v>
+      </c>
+      <c r="C47">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48">
+        <v>3008</v>
+      </c>
+      <c r="C48">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49">
+        <v>3009</v>
+      </c>
+      <c r="C49">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50">
+        <v>3010</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="E50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51">
+        <v>3011</v>
+      </c>
+      <c r="C51">
+        <v>22</v>
+      </c>
+      <c r="E51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52">
+        <v>3012</v>
+      </c>
+      <c r="C52">
+        <v>24</v>
+      </c>
+      <c r="E52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53">
+        <v>3013</v>
+      </c>
+      <c r="C53">
+        <v>26</v>
+      </c>
+      <c r="E53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54">
+        <v>3014</v>
+      </c>
+      <c r="C54">
+        <v>28</v>
+      </c>
+      <c r="E54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55">
+        <v>3015</v>
+      </c>
+      <c r="C55">
+        <v>30</v>
+      </c>
+      <c r="E55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="5">
+        <v>3016</v>
+      </c>
+      <c r="C56" s="5">
+        <v>32</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="5">
+        <v>3017</v>
+      </c>
+      <c r="C57" s="5">
+        <v>34</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="5">
+        <v>3018</v>
+      </c>
+      <c r="C58" s="5">
+        <v>36</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59">
+        <v>4000</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60">
+        <v>4001</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61">
+        <v>4002</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62">
+        <v>4003</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+      <c r="E62" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63">
+        <v>4004</v>
+      </c>
+      <c r="C63">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64">
+        <v>4005</v>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65">
+        <v>4006</v>
+      </c>
+      <c r="C65">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66">
+        <v>4007</v>
+      </c>
+      <c r="C66">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67">
+        <v>4008</v>
+      </c>
+      <c r="C67">
+        <v>17</v>
+      </c>
+      <c r="E67" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68">
+        <v>4009</v>
+      </c>
+      <c r="C68">
+        <v>19</v>
+      </c>
+      <c r="E68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69">
+        <v>4010</v>
+      </c>
+      <c r="C69">
+        <v>21</v>
+      </c>
+      <c r="E69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70">
+        <v>4011</v>
+      </c>
+      <c r="C70">
+        <v>23</v>
+      </c>
+      <c r="E70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71">
+        <v>4012</v>
+      </c>
+      <c r="C71">
+        <v>25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72">
+        <v>4013</v>
+      </c>
+      <c r="C72">
+        <v>27</v>
+      </c>
+      <c r="E72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73">
+        <v>4014</v>
+      </c>
+      <c r="C73">
+        <v>29</v>
+      </c>
+      <c r="E73" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74">
+        <v>4015</v>
+      </c>
+      <c r="C74">
+        <v>31</v>
+      </c>
+      <c r="E74" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="5">
+        <v>4016</v>
+      </c>
+      <c r="C75" s="5">
+        <v>33</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="5">
+        <v>4017</v>
+      </c>
+      <c r="C76" s="5">
+        <v>35</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="5">
+        <v>4018</v>
+      </c>
+      <c r="C77" s="5">
+        <v>37</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78">
+        <v>5000</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>94</v>
+      </c>
+      <c r="F78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79">
+        <v>5001</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>98</v>
+      </c>
+      <c r="F79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80">
+        <v>5002</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1210,1044 +2070,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056BFDC2-D207-40E8-A2CC-5A74C5A945DC}">
-  <dimension ref="A1:G20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2">
-        <v>2000</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>2001</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4">
-        <v>2002</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>2003</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6">
-        <v>2004</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7">
-        <v>2005</v>
-      </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8">
-        <v>2006</v>
-      </c>
-      <c r="C8">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9">
-        <v>2007</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10">
-        <v>2008</v>
-      </c>
-      <c r="C10">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11">
-        <v>2009</v>
-      </c>
-      <c r="C11">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12">
-        <v>2010</v>
-      </c>
-      <c r="C12">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13">
-        <v>2011</v>
-      </c>
-      <c r="C13">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14">
-        <v>2012</v>
-      </c>
-      <c r="C14">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15">
-        <v>2013</v>
-      </c>
-      <c r="C15">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16">
-        <v>2014</v>
-      </c>
-      <c r="C16">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="5">
-        <v>2015</v>
-      </c>
-      <c r="C17" s="5">
-        <v>31</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="5">
-        <v>2016</v>
-      </c>
-      <c r="C18" s="5">
-        <v>33</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="5">
-        <v>2017</v>
-      </c>
-      <c r="C19" s="5">
-        <v>35</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="5">
-        <v>2018</v>
-      </c>
-      <c r="C20" s="5">
-        <v>37</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25AA8A6-5655-4933-AB69-9601E0FA4BDC}">
-  <dimension ref="A1:F20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2">
-        <v>3000</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3">
-        <v>3001</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4">
-        <v>3002</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5">
-        <v>3003</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6">
-        <v>3004</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7">
-        <v>3005</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8">
-        <v>3006</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9">
-        <v>3007</v>
-      </c>
-      <c r="C9">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10">
-        <v>3008</v>
-      </c>
-      <c r="C10">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11">
-        <v>3009</v>
-      </c>
-      <c r="C11">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12">
-        <v>3010</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13">
-        <v>3011</v>
-      </c>
-      <c r="C13">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14">
-        <v>3012</v>
-      </c>
-      <c r="C14">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15">
-        <v>3013</v>
-      </c>
-      <c r="C15">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16">
-        <v>3014</v>
-      </c>
-      <c r="C16">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17">
-        <v>3015</v>
-      </c>
-      <c r="C17">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="5">
-        <v>3016</v>
-      </c>
-      <c r="C18" s="5">
-        <v>32</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="5">
-        <v>3017</v>
-      </c>
-      <c r="C19" s="5">
-        <v>34</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="5">
-        <v>3018</v>
-      </c>
-      <c r="C20" s="5">
-        <v>36</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC883CE-E30A-42FB-A57B-CCE1E0D1E87B}">
-  <dimension ref="A1:F20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2">
-        <v>4000</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3">
-        <v>4001</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4">
-        <v>4002</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5">
-        <v>4003</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6">
-        <v>4004</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7">
-        <v>4005</v>
-      </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8">
-        <v>4006</v>
-      </c>
-      <c r="C8">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9">
-        <v>4007</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10">
-        <v>4008</v>
-      </c>
-      <c r="C10">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11">
-        <v>4009</v>
-      </c>
-      <c r="C11">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12">
-        <v>4010</v>
-      </c>
-      <c r="C12">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13">
-        <v>4011</v>
-      </c>
-      <c r="C13">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14">
-        <v>4012</v>
-      </c>
-      <c r="C14">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15">
-        <v>4013</v>
-      </c>
-      <c r="C15">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16">
-        <v>4014</v>
-      </c>
-      <c r="C16">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17">
-        <v>4015</v>
-      </c>
-      <c r="C17">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="5">
-        <v>4016</v>
-      </c>
-      <c r="C18" s="5">
-        <v>33</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="5">
-        <v>4017</v>
-      </c>
-      <c r="C19" s="5">
-        <v>35</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="5">
-        <v>4018</v>
-      </c>
-      <c r="C20" s="5">
-        <v>37</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F711B026-6D47-42BA-85FC-FA0D6DE47F0A}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2">
-        <v>5000</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3">
-        <v>5001</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4">
-        <v>5002</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C211D7-A390-4604-8351-20ADC52B9D7C}">
   <dimension ref="A1:D6"/>
   <sheetViews>

--- a/ProjectB/DBTable/Excel/Menu_Table.xlsx
+++ b/ProjectB/DBTable/Excel/Menu_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungw\Documents\GitHub\BunSikFactory\ProjectB\DBTable\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ED5EE9-7D93-4CA2-A516-710A31580864}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1153D469-76AF-43B7-AD3F-56703C7C737B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" xr2:uid="{1933407A-4930-4F61-9968-64469F1B14E4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="104">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,6 +442,10 @@
   </si>
   <si>
     <t>수익 두배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +557,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -572,6 +576,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% - 강조색3" xfId="2" builtinId="40"/>
@@ -890,24 +895,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B577C08-90E2-4172-8130-DB0BD138B170}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -915,19 +920,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -935,13 +943,16 @@
         <v>1000</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -949,13 +960,16 @@
         <v>1001</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,13 +977,16 @@
         <v>1002</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -977,13 +994,16 @@
         <v>1003</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -991,13 +1011,16 @@
         <v>1004</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1005,13 +1028,16 @@
         <v>1005</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1019,13 +1045,16 @@
         <v>1006</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1033,13 +1062,16 @@
         <v>1007</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1047,13 +1079,16 @@
         <v>1008</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1061,13 +1096,16 @@
         <v>1009</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1075,13 +1113,16 @@
         <v>1010</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>20</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1089,13 +1130,16 @@
         <v>1011</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>22</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1103,13 +1147,16 @@
         <v>1012</v>
       </c>
       <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>24</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1117,13 +1164,16 @@
         <v>1013</v>
       </c>
       <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>26</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1131,13 +1181,16 @@
         <v>1014</v>
       </c>
       <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,920 +1198,1112 @@
         <v>1015</v>
       </c>
       <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>30</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="5">
         <v>1016</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
         <v>32</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="5">
         <v>1017</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
         <v>34</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="5">
         <v>1018</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
         <v>36</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B21">
         <v>2000</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
         <v>1</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B22">
         <v>2001</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B23">
         <v>2002</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <v>5</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B24">
         <v>2003</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <v>7</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B25">
         <v>2004</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25">
         <v>9</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B26">
         <v>2005</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26">
         <v>11</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B27">
         <v>2006</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>13</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B28">
         <v>2007</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28">
         <v>15</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B29">
         <v>2008</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29">
         <v>17</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B30">
         <v>2009</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30">
         <v>19</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B31">
         <v>2010</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31">
         <v>21</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B32">
         <v>2011</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32">
         <v>23</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B33">
         <v>2012</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <v>25</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B34">
         <v>2013</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34">
         <v>27</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B35">
         <v>2014</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>29</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B36" s="5">
         <v>2015</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
         <v>31</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="5">
         <v>2016</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
         <v>33</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="5"/>
+      <c r="F37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B38" s="5">
         <v>2017</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
         <v>35</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="5"/>
+      <c r="F38" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B39" s="5">
         <v>2018</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
         <v>37</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B40">
         <v>3000</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="6">
+        <v>2</v>
+      </c>
+      <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B41">
         <v>3001</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="6">
         <v>2</v>
       </c>
-      <c r="E41" t="s">
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B42">
         <v>3002</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="6">
+        <v>2</v>
+      </c>
+      <c r="D42">
         <v>4</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B43">
         <v>3003</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="6">
+        <v>2</v>
+      </c>
+      <c r="D43">
         <v>6</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B44">
         <v>3004</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44">
         <v>8</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B45">
         <v>3005</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="6">
+        <v>2</v>
+      </c>
+      <c r="D45">
         <v>10</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B46">
         <v>3006</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="6">
+        <v>2</v>
+      </c>
+      <c r="D46">
         <v>12</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B47">
         <v>3007</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="6">
+        <v>2</v>
+      </c>
+      <c r="D47">
         <v>14</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B48">
         <v>3008</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="6">
+        <v>2</v>
+      </c>
+      <c r="D48">
         <v>16</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B49">
         <v>3009</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="6">
+        <v>2</v>
+      </c>
+      <c r="D49">
         <v>18</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B50">
         <v>3010</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="6">
+        <v>2</v>
+      </c>
+      <c r="D50">
         <v>20</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B51">
         <v>3011</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="6">
+        <v>2</v>
+      </c>
+      <c r="D51">
         <v>22</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B52">
         <v>3012</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="6">
+        <v>2</v>
+      </c>
+      <c r="D52">
         <v>24</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B53">
         <v>3013</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="6">
+        <v>2</v>
+      </c>
+      <c r="D53">
         <v>26</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B54">
         <v>3014</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="6">
+        <v>2</v>
+      </c>
+      <c r="D54">
         <v>28</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B55">
         <v>3015</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="6">
+        <v>2</v>
+      </c>
+      <c r="D55">
         <v>30</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B56" s="5">
         <v>3016</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="6">
+        <v>2</v>
+      </c>
+      <c r="D56" s="5">
         <v>32</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="5"/>
+      <c r="F56" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B57" s="5">
         <v>3017</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="6">
+        <v>2</v>
+      </c>
+      <c r="D57" s="5">
         <v>34</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="5"/>
+      <c r="F57" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B58" s="5">
         <v>3018</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="6">
+        <v>2</v>
+      </c>
+      <c r="D58" s="5">
         <v>36</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="5"/>
+      <c r="F58" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B59">
         <v>4000</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="6">
+        <v>3</v>
+      </c>
+      <c r="D59">
         <v>1</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B60">
         <v>4001</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="6">
         <v>3</v>
       </c>
-      <c r="E60" t="s">
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="F60" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B61">
         <v>4002</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="6">
+        <v>3</v>
+      </c>
+      <c r="D61">
         <v>5</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B62">
         <v>4003</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="6">
+        <v>3</v>
+      </c>
+      <c r="D62">
         <v>7</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B63">
         <v>4004</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="6">
+        <v>3</v>
+      </c>
+      <c r="D63">
         <v>9</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B64">
         <v>4005</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="6">
+        <v>3</v>
+      </c>
+      <c r="D64">
         <v>11</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B65">
         <v>4006</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="6">
+        <v>3</v>
+      </c>
+      <c r="D65">
         <v>13</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B66">
         <v>4007</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="6">
+        <v>3</v>
+      </c>
+      <c r="D66">
         <v>15</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B67">
         <v>4008</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="6">
+        <v>3</v>
+      </c>
+      <c r="D67">
         <v>17</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B68">
         <v>4009</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="6">
+        <v>3</v>
+      </c>
+      <c r="D68">
         <v>19</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B69">
         <v>4010</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="6">
+        <v>3</v>
+      </c>
+      <c r="D69">
         <v>21</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B70">
         <v>4011</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="6">
+        <v>3</v>
+      </c>
+      <c r="D70">
         <v>23</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B71">
         <v>4012</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="6">
+        <v>3</v>
+      </c>
+      <c r="D71">
         <v>25</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B72">
         <v>4013</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="6">
+        <v>3</v>
+      </c>
+      <c r="D72">
         <v>27</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B73">
         <v>4014</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="6">
+        <v>3</v>
+      </c>
+      <c r="D73">
         <v>29</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B74">
         <v>4015</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="6">
+        <v>3</v>
+      </c>
+      <c r="D74">
         <v>31</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B75" s="5">
         <v>4016</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="6">
+        <v>3</v>
+      </c>
+      <c r="D75" s="5">
         <v>33</v>
       </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="5"/>
+      <c r="F75" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B76" s="5">
         <v>4017</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="6">
+        <v>3</v>
+      </c>
+      <c r="D76" s="5">
         <v>35</v>
       </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="5"/>
+      <c r="F76" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B77" s="5">
         <v>4018</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="6">
+        <v>3</v>
+      </c>
+      <c r="D77" s="5">
         <v>37</v>
       </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="5"/>
+      <c r="F77" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>95</v>
       </c>
       <c r="B78">
         <v>5000</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="6">
+        <v>4</v>
+      </c>
+      <c r="D78">
         <v>0</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>94</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>97</v>
       </c>
       <c r="B79">
         <v>5001</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="6">
+        <v>4</v>
+      </c>
+      <c r="D79">
         <v>0</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>98</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>102</v>
       </c>
       <c r="B80">
         <v>5002</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="6">
+        <v>4</v>
+      </c>
+      <c r="D80">
         <v>0</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>101</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>100</v>
       </c>
     </row>
